--- a/Exercise-1-Data/Exercise-1-Data/PartyControl.xlsx
+++ b/Exercise-1-Data/Exercise-1-Data/PartyControl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepf\Google Drive - NU\Courses\Spring Quarter 2017\Data Viz\Exercise-1-Data\Exercise-1-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepf\Google Drive - NU\Courses\Spring Quarter 2017\411 - Data Viz\HW1\Exercise-1-Data\Exercise-1-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="22">
   <si>
     <t>President</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>S/H</t>
+  </si>
+  <si>
+    <t>P_changed</t>
+  </si>
+  <si>
+    <t>S_changed</t>
+  </si>
+  <si>
+    <t>H_changed</t>
   </si>
 </sst>
 </file>
@@ -523,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -538,7 +547,7 @@
     <col min="9" max="9" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -584,8 +593,17 @@
       <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>2294</v>
       </c>
@@ -638,7 +656,7 @@
         <v>K</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2295</v>
       </c>
@@ -690,8 +708,20 @@
         <f t="shared" ref="O3:O66" si="5">TRIM(C3)</f>
         <v>R</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P3">
+        <f>IF(B2 = B3, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>IF(C2 = C3, 0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f>IF(D2 = D3, 0, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2296</v>
       </c>
@@ -743,8 +773,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4">
+        <f t="shared" ref="P4:R67" si="6">IF(B3 = B4, 0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>2297</v>
       </c>
@@ -796,8 +838,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2298</v>
       </c>
@@ -849,8 +903,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2299</v>
       </c>
@@ -902,8 +968,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>2300</v>
       </c>
@@ -955,8 +1033,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>2301</v>
       </c>
@@ -1008,8 +1098,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2302</v>
       </c>
@@ -1061,8 +1163,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2303</v>
       </c>
@@ -1114,8 +1228,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2304</v>
       </c>
@@ -1167,8 +1293,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2305</v>
       </c>
@@ -1220,8 +1358,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2306</v>
       </c>
@@ -1273,8 +1423,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2307</v>
       </c>
@@ -1326,8 +1488,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2308</v>
       </c>
@@ -1379,8 +1553,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2309</v>
       </c>
@@ -1432,8 +1618,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2310</v>
       </c>
@@ -1485,8 +1683,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2311</v>
       </c>
@@ -1538,8 +1748,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2312</v>
       </c>
@@ -1591,8 +1813,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2313</v>
       </c>
@@ -1644,8 +1878,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2314</v>
       </c>
@@ -1697,8 +1943,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2315</v>
       </c>
@@ -1750,8 +2008,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2316</v>
       </c>
@@ -1803,8 +2073,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2317</v>
       </c>
@@ -1856,8 +2138,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2318</v>
       </c>
@@ -1909,8 +2203,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2319</v>
       </c>
@@ -1962,8 +2268,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2320</v>
       </c>
@@ -2015,8 +2333,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2321</v>
       </c>
@@ -2068,8 +2398,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>2322</v>
       </c>
@@ -2121,8 +2463,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>2323</v>
       </c>
@@ -2174,8 +2528,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>2324</v>
       </c>
@@ -2227,8 +2593,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>2325</v>
       </c>
@@ -2280,8 +2658,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>2326</v>
       </c>
@@ -2333,8 +2723,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>2327</v>
       </c>
@@ -2386,8 +2788,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>2328</v>
       </c>
@@ -2439,8 +2853,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>2329</v>
       </c>
@@ -2492,8 +2918,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>2330</v>
       </c>
@@ -2545,8 +2983,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>2331</v>
       </c>
@@ -2598,8 +3048,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>2332</v>
       </c>
@@ -2651,8 +3113,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>2333</v>
       </c>
@@ -2704,8 +3178,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>2334</v>
       </c>
@@ -2757,8 +3243,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>2335</v>
       </c>
@@ -2810,8 +3308,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>2336</v>
       </c>
@@ -2863,8 +3373,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>2337</v>
       </c>
@@ -2916,8 +3438,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>2338</v>
       </c>
@@ -2969,8 +3503,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>2339</v>
       </c>
@@ -3022,8 +3568,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P47">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>2340</v>
       </c>
@@ -3075,8 +3633,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>2341</v>
       </c>
@@ -3128,8 +3698,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>2342</v>
       </c>
@@ -3181,8 +3763,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>2343</v>
       </c>
@@ -3234,8 +3828,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>2344</v>
       </c>
@@ -3287,8 +3893,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>2345</v>
       </c>
@@ -3340,8 +3958,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>2346</v>
       </c>
@@ -3393,8 +4023,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>2347</v>
       </c>
@@ -3446,8 +4088,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P55">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>2348</v>
       </c>
@@ -3499,8 +4153,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>2349</v>
       </c>
@@ -3552,8 +4218,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>2350</v>
       </c>
@@ -3605,8 +4283,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>2351</v>
       </c>
@@ -3658,8 +4348,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>2352</v>
       </c>
@@ -3711,8 +4413,20 @@
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>2353</v>
       </c>
@@ -3764,8 +4478,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>2354</v>
       </c>
@@ -3817,8 +4543,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>2355</v>
       </c>
@@ -3870,8 +4608,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P63">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>2356</v>
       </c>
@@ -3923,8 +4673,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>2357</v>
       </c>
@@ -3976,8 +4738,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>2358</v>
       </c>
@@ -4029,8 +4803,20 @@
         <f t="shared" si="5"/>
         <v>R</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>2359</v>
       </c>
@@ -4059,28 +4845,40 @@
         <v>8.184764991896272E-2</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ref="J67" si="6">CONCATENATE(B67,O67)</f>
+        <f t="shared" ref="J67" si="7">CONCATENATE(B67,O67)</f>
         <v>RR</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67" si="7">CONCATENATE(B67,N67)</f>
+        <f t="shared" ref="K67" si="8">CONCATENATE(B67,N67)</f>
         <v>RK</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67" si="8">CONCATENATE(B67,O67,N67)</f>
+        <f t="shared" ref="L67" si="9">CONCATENATE(B67,O67,N67)</f>
         <v>RRK</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67" si="9">CONCATENATE(O67,N67)</f>
+        <f t="shared" ref="M67" si="10">CONCATENATE(O67,N67)</f>
         <v>RK</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" ref="N67" si="10">TRIM(E67)</f>
+        <f t="shared" ref="N67" si="11">TRIM(E67)</f>
         <v>K</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67" si="11">TRIM(C67)</f>
-        <v>R</v>
+        <f t="shared" ref="O67" si="12">TRIM(C67)</f>
+        <v>R</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Exercise-1-Data/Exercise-1-Data/PartyControl.xlsx
+++ b/Exercise-1-Data/Exercise-1-Data/PartyControl.xlsx
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <f>IF(D2 = D3, 0, 1)</f>
+        <f>IF(E2 = E3, 0, 1)</f>
         <v>1</v>
       </c>
     </row>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="R4:R67" si="7">IF(E3 = E4, 0, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -847,8 +847,8 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -977,8 +977,8 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="R9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1237,8 +1237,8 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1367,8 +1367,8 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1497,8 +1497,8 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1627,8 +1627,8 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1757,8 +1757,8 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1887,8 +1887,8 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2017,8 +2017,8 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2147,8 +2147,8 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2277,8 +2277,8 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2407,8 +2407,8 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2537,8 +2537,8 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2667,8 +2667,8 @@
         <v>0</v>
       </c>
       <c r="R33">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2797,8 +2797,8 @@
         <v>1</v>
       </c>
       <c r="R35">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2927,8 +2927,8 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="R38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3057,8 +3057,8 @@
         <v>0</v>
       </c>
       <c r="R39">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="R40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3187,8 +3187,8 @@
         <v>1</v>
       </c>
       <c r="R41">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="R42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="R44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3447,8 +3447,8 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3577,8 +3577,8 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="R49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3837,8 +3837,8 @@
         <v>0</v>
       </c>
       <c r="R51">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="R53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="R54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4097,8 +4097,8 @@
         <v>1</v>
       </c>
       <c r="R55">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="R56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4227,8 +4227,8 @@
         <v>1</v>
       </c>
       <c r="R57">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4357,8 +4357,8 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="R61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="R62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4617,8 +4617,8 @@
         <v>0</v>
       </c>
       <c r="R63">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="R64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="R65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4845,27 +4845,27 @@
         <v>8.184764991896272E-2</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ref="J67" si="7">CONCATENATE(B67,O67)</f>
+        <f t="shared" ref="J67" si="8">CONCATENATE(B67,O67)</f>
         <v>RR</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67" si="8">CONCATENATE(B67,N67)</f>
+        <f t="shared" ref="K67" si="9">CONCATENATE(B67,N67)</f>
         <v>RK</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67" si="9">CONCATENATE(B67,O67,N67)</f>
+        <f t="shared" ref="L67" si="10">CONCATENATE(B67,O67,N67)</f>
         <v>RRK</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67" si="10">CONCATENATE(O67,N67)</f>
+        <f t="shared" ref="M67" si="11">CONCATENATE(O67,N67)</f>
         <v>RK</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" ref="N67" si="11">TRIM(E67)</f>
+        <f t="shared" ref="N67" si="12">TRIM(E67)</f>
         <v>K</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67" si="12">TRIM(C67)</f>
+        <f t="shared" ref="O67" si="13">TRIM(C67)</f>
         <v>R</v>
       </c>
       <c r="P67">
@@ -4877,8 +4877,8 @@
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
